--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Fn1-Itgb3.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Fn1-Itgb3.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>40.73495550000001</v>
+        <v>27.043729</v>
       </c>
       <c r="H2">
-        <v>81.46991100000001</v>
+        <v>54.087458</v>
       </c>
       <c r="I2">
-        <v>0.05567871843833242</v>
+        <v>0.02651485103642245</v>
       </c>
       <c r="J2">
-        <v>0.03826666865920979</v>
+        <v>0.01793093290354402</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>5.550980500000001</v>
+        <v>8.6414115</v>
       </c>
       <c r="N2">
-        <v>11.101961</v>
+        <v>17.282823</v>
       </c>
       <c r="O2">
-        <v>0.4587918645086687</v>
+        <v>0.324587453754156</v>
       </c>
       <c r="P2">
-        <v>0.3684119094562331</v>
+        <v>0.245468685875478</v>
       </c>
       <c r="Q2">
-        <v>226.1189436488678</v>
+        <v>233.6959907834835</v>
       </c>
       <c r="R2">
-        <v>904.4757745954712</v>
+        <v>934.783963133934</v>
       </c>
       <c r="S2">
-        <v>0.02554494304577572</v>
+        <v>0.008606387984583108</v>
       </c>
       <c r="T2">
-        <v>0.01409789646926847</v>
+        <v>0.004401482536354321</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>40.73495550000001</v>
+        <v>27.043729</v>
       </c>
       <c r="H3">
-        <v>81.46991100000001</v>
+        <v>54.087458</v>
       </c>
       <c r="I3">
-        <v>0.05567871843833242</v>
+        <v>0.02651485103642245</v>
       </c>
       <c r="J3">
-        <v>0.03826666865920979</v>
+        <v>0.01793093290354402</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>3.981621</v>
       </c>
       <c r="O3">
-        <v>0.1096944538210784</v>
+        <v>0.04985235811703818</v>
       </c>
       <c r="P3">
-        <v>0.1321277020646205</v>
+        <v>0.05655113603398049</v>
       </c>
       <c r="Q3">
-        <v>54.0637180842885</v>
+        <v>35.89262643490299</v>
       </c>
       <c r="R3">
-        <v>324.382308505731</v>
+        <v>215.355758609418</v>
       </c>
       <c r="S3">
-        <v>0.00610764660855048</v>
+        <v>0.001321827849287653</v>
       </c>
       <c r="T3">
-        <v>0.005056086995609622</v>
+        <v>0.001014014625844495</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>40.73495550000001</v>
+        <v>27.043729</v>
       </c>
       <c r="H4">
-        <v>81.46991100000001</v>
+        <v>54.087458</v>
       </c>
       <c r="I4">
-        <v>0.05567871843833242</v>
+        <v>0.02651485103642245</v>
       </c>
       <c r="J4">
-        <v>0.03826666865920979</v>
+        <v>0.01793093290354402</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.250284</v>
+        <v>0.5601933333333333</v>
       </c>
       <c r="N4">
-        <v>0.750852</v>
+        <v>1.68058</v>
       </c>
       <c r="O4">
-        <v>0.02068612257180288</v>
+        <v>0.02104190127697539</v>
       </c>
       <c r="P4">
-        <v>0.02491657276034671</v>
+        <v>0.0238693507483477</v>
       </c>
       <c r="Q4">
-        <v>10.195307602362</v>
+        <v>15.14971669427333</v>
       </c>
       <c r="R4">
-        <v>61.17184561417201</v>
+        <v>90.89830016563999</v>
       </c>
       <c r="S4">
-        <v>0.001151776794256246</v>
+        <v>0.0005579228778821098</v>
       </c>
       <c r="T4">
-        <v>0.0009534742339432801</v>
+        <v>0.000427999726719781</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>40.73495550000001</v>
+        <v>27.043729</v>
       </c>
       <c r="H5">
-        <v>81.46991100000001</v>
+        <v>54.087458</v>
       </c>
       <c r="I5">
-        <v>0.05567871843833242</v>
+        <v>0.02651485103642245</v>
       </c>
       <c r="J5">
-        <v>0.03826666865920979</v>
+        <v>0.01793093290354402</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.611755</v>
+        <v>0.8194015</v>
       </c>
       <c r="N5">
-        <v>1.22351</v>
+        <v>1.638803</v>
       </c>
       <c r="O5">
-        <v>0.05056191731758031</v>
+        <v>0.03077824108796764</v>
       </c>
       <c r="P5">
-        <v>0.04060144467619692</v>
+        <v>0.02327599020245657</v>
       </c>
       <c r="Q5">
-        <v>24.9198127019025</v>
+        <v>22.1596721081935</v>
       </c>
       <c r="R5">
-        <v>99.67925080761002</v>
+        <v>88.638688432774</v>
       </c>
       <c r="S5">
-        <v>0.002815222758027799</v>
+        <v>0.0008160804776105588</v>
       </c>
       <c r="T5">
-        <v>0.001553682030509265</v>
+        <v>0.0004173602185837968</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>40.73495550000001</v>
+        <v>27.043729</v>
       </c>
       <c r="H6">
-        <v>81.46991100000001</v>
+        <v>54.087458</v>
       </c>
       <c r="I6">
-        <v>0.05567871843833242</v>
+        <v>0.02651485103642245</v>
       </c>
       <c r="J6">
-        <v>0.03826666865920979</v>
+        <v>0.01793093290354402</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>4.001879333333334</v>
+        <v>15.11328633333333</v>
       </c>
       <c r="N6">
-        <v>12.005638</v>
+        <v>45.339859</v>
       </c>
       <c r="O6">
-        <v>0.3307577248521605</v>
+        <v>0.5676830838103418</v>
       </c>
       <c r="P6">
-        <v>0.3983998880756573</v>
+        <v>0.6439639870471084</v>
       </c>
       <c r="Q6">
-        <v>163.016376559703</v>
+        <v>408.7196198980703</v>
       </c>
       <c r="R6">
-        <v>978.0982593582182</v>
+        <v>2452.317719388422</v>
       </c>
       <c r="S6">
-        <v>0.01841616623334687</v>
+        <v>0.01505203240312813</v>
       </c>
       <c r="T6">
-        <v>0.01524543651085744</v>
+        <v>0.01154687504404039</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>40.73495550000001</v>
+        <v>27.043729</v>
       </c>
       <c r="H7">
-        <v>81.46991100000001</v>
+        <v>54.087458</v>
       </c>
       <c r="I7">
-        <v>0.05567871843833242</v>
+        <v>0.02651485103642245</v>
       </c>
       <c r="J7">
-        <v>0.03826666865920979</v>
+        <v>0.01793093290354402</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.3570200000000001</v>
+        <v>0.161253</v>
       </c>
       <c r="N7">
-        <v>1.07106</v>
+        <v>0.4837590000000001</v>
       </c>
       <c r="O7">
-        <v>0.02950791692870925</v>
+        <v>0.00605696195352101</v>
       </c>
       <c r="P7">
-        <v>0.03554248296694549</v>
+        <v>0.006870850092628699</v>
       </c>
       <c r="Q7">
-        <v>14.54319381261</v>
+        <v>4.360882432437</v>
       </c>
       <c r="R7">
-        <v>87.25916287566002</v>
+        <v>26.165294594622</v>
       </c>
       <c r="S7">
-        <v>0.001642962998375305</v>
+        <v>0.0001605994439308879</v>
       </c>
       <c r="T7">
-        <v>0.001360092419021711</v>
+        <v>0.0001232007520012344</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>1051.17572</v>
       </c>
       <c r="I8">
-        <v>0.4789344206933965</v>
+        <v>0.3435395026194319</v>
       </c>
       <c r="J8">
-        <v>0.4937404802104949</v>
+        <v>0.3484830310412181</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>5.550980500000001</v>
+        <v>8.6414115</v>
       </c>
       <c r="N8">
-        <v>11.101961</v>
+        <v>17.282823</v>
       </c>
       <c r="O8">
-        <v>0.4587918645086687</v>
+        <v>0.324587453754156</v>
       </c>
       <c r="P8">
-        <v>0.3684119094562331</v>
+        <v>0.245468685875478</v>
       </c>
       <c r="Q8">
-        <v>1945.018641264487</v>
+        <v>3027.88065177626</v>
       </c>
       <c r="R8">
-        <v>11670.11184758692</v>
+        <v>18167.28391065756</v>
       </c>
       <c r="S8">
-        <v>0.2197312158473025</v>
+        <v>0.1115086124192106</v>
       </c>
       <c r="T8">
-        <v>0.1818998730901859</v>
+        <v>0.08554167167959123</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>1051.17572</v>
       </c>
       <c r="I9">
-        <v>0.4789344206933965</v>
+        <v>0.3435395026194319</v>
       </c>
       <c r="J9">
-        <v>0.4937404802104949</v>
+        <v>0.3484830310412181</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>3.981621</v>
       </c>
       <c r="O9">
-        <v>0.1096944538210784</v>
+        <v>0.04985235811703818</v>
       </c>
       <c r="P9">
-        <v>0.1321277020646205</v>
+        <v>0.05655113603398049</v>
       </c>
       <c r="Q9">
         <v>465.0425912713466</v>
@@ -1013,10 +1013,10 @@
         <v>4185.383321442119</v>
       </c>
       <c r="S9">
-        <v>0.0525364496940767</v>
+        <v>0.01712625431193309</v>
       </c>
       <c r="T9">
-        <v>0.06523679506649492</v>
+        <v>0.01970711129394577</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>1051.17572</v>
       </c>
       <c r="I10">
-        <v>0.4789344206933965</v>
+        <v>0.3435395026194319</v>
       </c>
       <c r="J10">
-        <v>0.4937404802104949</v>
+        <v>0.3484830310412181</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.250284</v>
+        <v>0.5601933333333333</v>
       </c>
       <c r="N10">
-        <v>0.750852</v>
+        <v>1.68058</v>
       </c>
       <c r="O10">
-        <v>0.02068612257180288</v>
+        <v>0.02104190127697539</v>
       </c>
       <c r="P10">
-        <v>0.02491657276034671</v>
+        <v>0.0238693507483477</v>
       </c>
       <c r="Q10">
-        <v>87.69748796816</v>
+        <v>196.2872101686222</v>
       </c>
       <c r="R10">
-        <v>789.2773917134399</v>
+        <v>1766.5848915176</v>
       </c>
       <c r="S10">
-        <v>0.009907296130319005</v>
+        <v>0.007228724298859314</v>
       </c>
       <c r="T10">
-        <v>0.01230232059989332</v>
+        <v>0.008318063697770176</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>1051.17572</v>
       </c>
       <c r="I11">
-        <v>0.4789344206933965</v>
+        <v>0.3435395026194319</v>
       </c>
       <c r="J11">
-        <v>0.4937404802104949</v>
+        <v>0.3484830310412181</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.611755</v>
+        <v>0.8194015</v>
       </c>
       <c r="N11">
-        <v>1.22351</v>
+        <v>1.638803</v>
       </c>
       <c r="O11">
-        <v>0.05056191731758031</v>
+        <v>0.03077824108796764</v>
       </c>
       <c r="P11">
-        <v>0.04060144467619692</v>
+        <v>0.02327599020245657</v>
       </c>
       <c r="Q11">
-        <v>214.3540008628667</v>
+        <v>287.1116539105267</v>
       </c>
       <c r="R11">
-        <v>1286.1240051772</v>
+        <v>1722.66992346316</v>
       </c>
       <c r="S11">
-        <v>0.02421584257964274</v>
+        <v>0.01057354163486137</v>
       </c>
       <c r="T11">
-        <v>0.02004657679166531</v>
+        <v>0.00811128761623776</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>1051.17572</v>
       </c>
       <c r="I12">
-        <v>0.4789344206933965</v>
+        <v>0.3435395026194319</v>
       </c>
       <c r="J12">
-        <v>0.4937404802104949</v>
+        <v>0.3484830310412181</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>4.001879333333334</v>
+        <v>15.11328633333333</v>
       </c>
       <c r="N12">
-        <v>12.005638</v>
+        <v>45.339859</v>
       </c>
       <c r="O12">
-        <v>0.3307577248521605</v>
+        <v>0.5676830838103418</v>
       </c>
       <c r="P12">
-        <v>0.3983998880756573</v>
+        <v>0.6439639870471084</v>
       </c>
       <c r="Q12">
-        <v>1402.226129856596</v>
+        <v>5295.573214335943</v>
       </c>
       <c r="R12">
-        <v>12620.03516870936</v>
+        <v>47660.15892902348</v>
       </c>
       <c r="S12">
-        <v>0.1584112593419353</v>
+        <v>0.1950215642576701</v>
       </c>
       <c r="T12">
-        <v>0.1967061520542825</v>
+        <v>0.224410522087564</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>1051.17572</v>
       </c>
       <c r="I13">
-        <v>0.4789344206933965</v>
+        <v>0.3435395026194319</v>
       </c>
       <c r="J13">
-        <v>0.4937404802104949</v>
+        <v>0.3484830310412181</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.3570200000000001</v>
+        <v>0.161253</v>
       </c>
       <c r="N13">
-        <v>1.07106</v>
+        <v>0.4837590000000001</v>
       </c>
       <c r="O13">
-        <v>0.02950791692870925</v>
+        <v>0.00605696195352101</v>
       </c>
       <c r="P13">
-        <v>0.03554248296694549</v>
+        <v>0.006870850092628699</v>
       </c>
       <c r="Q13">
-        <v>125.0969185181334</v>
+        <v>56.50174612572</v>
       </c>
       <c r="R13">
-        <v>1125.8722666632</v>
+        <v>508.51571513148</v>
       </c>
       <c r="S13">
-        <v>0.01413235710012023</v>
+        <v>0.00208080569689743</v>
       </c>
       <c r="T13">
-        <v>0.017548762607973</v>
+        <v>0.002394374666109083</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>243.8287033333334</v>
+        <v>384.09258</v>
       </c>
       <c r="H14">
-        <v>731.4861100000001</v>
+        <v>1152.27774</v>
       </c>
       <c r="I14">
-        <v>0.3332781281688242</v>
+        <v>0.3765811121275166</v>
       </c>
       <c r="J14">
-        <v>0.3435812836494235</v>
+        <v>0.3820001088272136</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>5.550980500000001</v>
+        <v>8.6414115</v>
       </c>
       <c r="N14">
-        <v>11.101961</v>
+        <v>17.282823</v>
       </c>
       <c r="O14">
-        <v>0.4587918645086687</v>
+        <v>0.324587453754156</v>
       </c>
       <c r="P14">
-        <v>0.3684119094562331</v>
+        <v>0.245468685875478</v>
       </c>
       <c r="Q14">
-        <v>1353.488377543619</v>
+        <v>3319.10203787667</v>
       </c>
       <c r="R14">
-        <v>8120.930265261712</v>
+        <v>19914.61222726002</v>
       </c>
       <c r="S14">
-        <v>0.1529052938225339</v>
+        <v>0.1222335043173789</v>
       </c>
       <c r="T14">
-        <v>0.1265794367627077</v>
+        <v>0.09376906471810573</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>243.8287033333334</v>
+        <v>384.09258</v>
       </c>
       <c r="H15">
-        <v>731.4861100000001</v>
+        <v>1152.27774</v>
       </c>
       <c r="I15">
-        <v>0.3332781281688242</v>
+        <v>0.3765811121275166</v>
       </c>
       <c r="J15">
-        <v>0.3435812836494235</v>
+        <v>0.3820001088272136</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>3.981621</v>
       </c>
       <c r="O15">
-        <v>0.1096944538210784</v>
+        <v>0.04985235811703818</v>
       </c>
       <c r="P15">
-        <v>0.1321277020646205</v>
+        <v>0.05655113603398049</v>
       </c>
       <c r="Q15">
-        <v>323.6111618649233</v>
+        <v>509.7703608240599</v>
       </c>
       <c r="R15">
-        <v>2912.50045678431</v>
+        <v>4587.933247416539</v>
       </c>
       <c r="S15">
-        <v>0.03655876223999053</v>
+        <v>0.01877345646189347</v>
       </c>
       <c r="T15">
-        <v>0.04539660548101089</v>
+        <v>0.02160254011928311</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>243.8287033333334</v>
+        <v>384.09258</v>
       </c>
       <c r="H16">
-        <v>731.4861100000001</v>
+        <v>1152.27774</v>
       </c>
       <c r="I16">
-        <v>0.3332781281688242</v>
+        <v>0.3765811121275166</v>
       </c>
       <c r="J16">
-        <v>0.3435812836494235</v>
+        <v>0.3820001088272136</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.250284</v>
+        <v>0.5601933333333333</v>
       </c>
       <c r="N16">
-        <v>0.750852</v>
+        <v>1.68058</v>
       </c>
       <c r="O16">
-        <v>0.02068612257180288</v>
+        <v>0.02104190127697539</v>
       </c>
       <c r="P16">
-        <v>0.02491657276034671</v>
+        <v>0.0238693507483477</v>
       </c>
       <c r="Q16">
-        <v>61.02642318508001</v>
+        <v>215.1661026988</v>
       </c>
       <c r="R16">
-        <v>549.23780866572</v>
+        <v>1936.4949242892</v>
       </c>
       <c r="S16">
-        <v>0.006894232209801328</v>
+        <v>0.007923982584160804</v>
       </c>
       <c r="T16">
-        <v>0.008560868053144183</v>
+        <v>0.009118094583503756</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>243.8287033333334</v>
+        <v>384.09258</v>
       </c>
       <c r="H17">
-        <v>731.4861100000001</v>
+        <v>1152.27774</v>
       </c>
       <c r="I17">
-        <v>0.3332781281688242</v>
+        <v>0.3765811121275166</v>
       </c>
       <c r="J17">
-        <v>0.3435812836494235</v>
+        <v>0.3820001088272136</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.611755</v>
+        <v>0.8194015</v>
       </c>
       <c r="N17">
-        <v>1.22351</v>
+        <v>1.638803</v>
       </c>
       <c r="O17">
-        <v>0.05056191731758031</v>
+        <v>0.03077824108796764</v>
       </c>
       <c r="P17">
-        <v>0.04060144467619692</v>
+        <v>0.02327599020245657</v>
       </c>
       <c r="Q17">
-        <v>149.1634284076834</v>
+        <v>314.72603619087</v>
       </c>
       <c r="R17">
-        <v>894.9805704461002</v>
+        <v>1888.35621714522</v>
       </c>
       <c r="S17">
-        <v>0.01685118116023003</v>
+        <v>0.01159050425823568</v>
       </c>
       <c r="T17">
-        <v>0.01394989647986879</v>
+        <v>0.008891430790399567</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>243.8287033333334</v>
+        <v>384.09258</v>
       </c>
       <c r="H18">
-        <v>731.4861100000001</v>
+        <v>1152.27774</v>
       </c>
       <c r="I18">
-        <v>0.3332781281688242</v>
+        <v>0.3765811121275166</v>
       </c>
       <c r="J18">
-        <v>0.3435812836494235</v>
+        <v>0.3820001088272136</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>4.001879333333334</v>
+        <v>15.11328633333333</v>
       </c>
       <c r="N18">
-        <v>12.005638</v>
+        <v>45.339859</v>
       </c>
       <c r="O18">
-        <v>0.3307577248521605</v>
+        <v>0.5676830838103418</v>
       </c>
       <c r="P18">
-        <v>0.3983998880756573</v>
+        <v>0.6439639870471084</v>
       </c>
       <c r="Q18">
-        <v>975.7730487431313</v>
+        <v>5804.901140048741</v>
       </c>
       <c r="R18">
-        <v>8781.957438688181</v>
+        <v>52244.11026043866</v>
       </c>
       <c r="S18">
-        <v>0.1102343154161071</v>
+        <v>0.2137787270372767</v>
       </c>
       <c r="T18">
-        <v>0.136882744950821</v>
+        <v>0.2459943131328018</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>243.8287033333334</v>
+        <v>384.09258</v>
       </c>
       <c r="H19">
-        <v>731.4861100000001</v>
+        <v>1152.27774</v>
       </c>
       <c r="I19">
-        <v>0.3332781281688242</v>
+        <v>0.3765811121275166</v>
       </c>
       <c r="J19">
-        <v>0.3435812836494235</v>
+        <v>0.3820001088272136</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.3570200000000001</v>
+        <v>0.161253</v>
       </c>
       <c r="N19">
-        <v>1.07106</v>
+        <v>0.4837590000000001</v>
       </c>
       <c r="O19">
-        <v>0.02950791692870925</v>
+        <v>0.00605696195352101</v>
       </c>
       <c r="P19">
-        <v>0.03554248296694549</v>
+        <v>0.006870850092628699</v>
       </c>
       <c r="Q19">
-        <v>87.05172366406669</v>
+        <v>61.93608080274</v>
       </c>
       <c r="R19">
-        <v>783.4655129766002</v>
+        <v>557.42472722466</v>
       </c>
       <c r="S19">
-        <v>0.009834343320161379</v>
+        <v>0.002280937468570997</v>
       </c>
       <c r="T19">
-        <v>0.0122117319218709</v>
+        <v>0.002624665483119634</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>25.082339</v>
+        <v>16.362698</v>
       </c>
       <c r="H20">
-        <v>50.16467799999999</v>
+        <v>32.725396</v>
       </c>
       <c r="I20">
-        <v>0.03428388404538221</v>
+        <v>0.01604270254386766</v>
       </c>
       <c r="J20">
-        <v>0.02356250409334497</v>
+        <v>0.01084903786600413</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>5.550980500000001</v>
+        <v>8.6414115</v>
       </c>
       <c r="N20">
-        <v>11.101961</v>
+        <v>17.282823</v>
       </c>
       <c r="O20">
-        <v>0.4587918645086687</v>
+        <v>0.324587453754156</v>
       </c>
       <c r="P20">
-        <v>0.3684119094562331</v>
+        <v>0.245468685875478</v>
       </c>
       <c r="Q20">
-        <v>139.2315746833895</v>
+        <v>141.396806668227</v>
       </c>
       <c r="R20">
-        <v>556.926298733558</v>
+        <v>565.5872266729081</v>
       </c>
       <c r="S20">
-        <v>0.0157291670837799</v>
+        <v>0.005207259970049325</v>
       </c>
       <c r="T20">
-        <v>0.008680707124599531</v>
+        <v>0.002663099067981335</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>25.082339</v>
+        <v>16.362698</v>
       </c>
       <c r="H21">
-        <v>50.16467799999999</v>
+        <v>32.725396</v>
       </c>
       <c r="I21">
-        <v>0.03428388404538221</v>
+        <v>0.01604270254386766</v>
       </c>
       <c r="J21">
-        <v>0.02356250409334497</v>
+        <v>0.01084903786600413</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>3.981621</v>
       </c>
       <c r="O21">
-        <v>0.1096944538210784</v>
+        <v>0.04985235811703818</v>
       </c>
       <c r="P21">
-        <v>0.1321277020646205</v>
+        <v>0.05655113603398049</v>
       </c>
       <c r="Q21">
-        <v>33.28945589717299</v>
+        <v>21.716687324486</v>
       </c>
       <c r="R21">
-        <v>199.736735383038</v>
+        <v>130.300123946916</v>
       </c>
       <c r="S21">
-        <v>0.003760751935223384</v>
+        <v>0.0007997665523820101</v>
       </c>
       <c r="T21">
-        <v>0.003113259520741885</v>
+        <v>0.000613525416198205</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>25.082339</v>
+        <v>16.362698</v>
       </c>
       <c r="H22">
-        <v>50.16467799999999</v>
+        <v>32.725396</v>
       </c>
       <c r="I22">
-        <v>0.03428388404538221</v>
+        <v>0.01604270254386766</v>
       </c>
       <c r="J22">
-        <v>0.02356250409334497</v>
+        <v>0.01084903786600413</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>0.250284</v>
+        <v>0.5601933333333333</v>
       </c>
       <c r="N22">
-        <v>0.750852</v>
+        <v>1.68058</v>
       </c>
       <c r="O22">
-        <v>0.02068612257180288</v>
+        <v>0.02104190127697539</v>
       </c>
       <c r="P22">
-        <v>0.02491657276034671</v>
+        <v>0.0238693507483477</v>
       </c>
       <c r="Q22">
-        <v>6.277708134276</v>
+        <v>9.166274334946667</v>
       </c>
       <c r="R22">
-        <v>37.666248805656</v>
+        <v>54.99764600968</v>
       </c>
       <c r="S22">
-        <v>0.0007092006276002535</v>
+        <v>0.0003375689631439452</v>
       </c>
       <c r="T22">
-        <v>0.0005870968476577973</v>
+        <v>0.0002589594901057583</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>25.082339</v>
+        <v>16.362698</v>
       </c>
       <c r="H23">
-        <v>50.16467799999999</v>
+        <v>32.725396</v>
       </c>
       <c r="I23">
-        <v>0.03428388404538221</v>
+        <v>0.01604270254386766</v>
       </c>
       <c r="J23">
-        <v>0.02356250409334497</v>
+        <v>0.01084903786600413</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>0.611755</v>
+        <v>0.8194015</v>
       </c>
       <c r="N23">
-        <v>1.22351</v>
+        <v>1.638803</v>
       </c>
       <c r="O23">
-        <v>0.05056191731758031</v>
+        <v>0.03077824108796764</v>
       </c>
       <c r="P23">
-        <v>0.04060144467619692</v>
+        <v>0.02327599020245657</v>
       </c>
       <c r="Q23">
-        <v>15.344246294945</v>
+        <v>13.407619285247</v>
       </c>
       <c r="R23">
-        <v>61.37698517978</v>
+        <v>53.63047714098801</v>
       </c>
       <c r="S23">
-        <v>0.001733458910428126</v>
+        <v>0.0004937661665977106</v>
       </c>
       <c r="T23">
-        <v>0.0009566717063786093</v>
+        <v>0.0002525220990751925</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>25.082339</v>
+        <v>16.362698</v>
       </c>
       <c r="H24">
-        <v>50.16467799999999</v>
+        <v>32.725396</v>
       </c>
       <c r="I24">
-        <v>0.03428388404538221</v>
+        <v>0.01604270254386766</v>
       </c>
       <c r="J24">
-        <v>0.02356250409334497</v>
+        <v>0.01084903786600413</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>4.001879333333334</v>
+        <v>15.11328633333333</v>
       </c>
       <c r="N24">
-        <v>12.005638</v>
+        <v>45.339859</v>
       </c>
       <c r="O24">
-        <v>0.3307577248521605</v>
+        <v>0.5676830838103418</v>
       </c>
       <c r="P24">
-        <v>0.3983998880756573</v>
+        <v>0.6439639870471084</v>
       </c>
       <c r="Q24">
-        <v>100.3764940757607</v>
+        <v>247.2941400598607</v>
       </c>
       <c r="R24">
-        <v>602.258964454564</v>
+        <v>1483.764840359164</v>
       </c>
       <c r="S24">
-        <v>0.0113396594859459</v>
+        <v>0.009107170852754809</v>
       </c>
       <c r="T24">
-        <v>0.009387298993570855</v>
+        <v>0.006986389679817074</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>25.082339</v>
+        <v>16.362698</v>
       </c>
       <c r="H25">
-        <v>50.16467799999999</v>
+        <v>32.725396</v>
       </c>
       <c r="I25">
-        <v>0.03428388404538221</v>
+        <v>0.01604270254386766</v>
       </c>
       <c r="J25">
-        <v>0.02356250409334497</v>
+        <v>0.01084903786600413</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>0.3570200000000001</v>
+        <v>0.161253</v>
       </c>
       <c r="N25">
-        <v>1.07106</v>
+        <v>0.4837590000000001</v>
       </c>
       <c r="O25">
-        <v>0.02950791692870925</v>
+        <v>0.00605696195352101</v>
       </c>
       <c r="P25">
-        <v>0.03554248296694549</v>
+        <v>0.006870850092628699</v>
       </c>
       <c r="Q25">
-        <v>8.95489666978</v>
+        <v>2.638534140594</v>
       </c>
       <c r="R25">
-        <v>53.72938001868</v>
+        <v>15.831204843564</v>
       </c>
       <c r="S25">
-        <v>0.001011646002404638</v>
+        <v>9.717003893986115E-05</v>
       </c>
       <c r="T25">
-        <v>0.000837469900396297</v>
+        <v>7.454211282656675E-05</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>22.832077</v>
+        <v>43.50447033333333</v>
       </c>
       <c r="H26">
-        <v>68.49623099999999</v>
+        <v>130.513411</v>
       </c>
       <c r="I26">
-        <v>0.03120810544755168</v>
+        <v>0.04265367953904556</v>
       </c>
       <c r="J26">
-        <v>0.03217289111905</v>
+        <v>0.04326746536421927</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>5.550980500000001</v>
+        <v>8.6414115</v>
       </c>
       <c r="N26">
-        <v>11.101961</v>
+        <v>17.282823</v>
       </c>
       <c r="O26">
-        <v>0.4587918645086687</v>
+        <v>0.324587453754156</v>
       </c>
       <c r="P26">
-        <v>0.3684119094562331</v>
+        <v>0.245468685875478</v>
       </c>
       <c r="Q26">
-        <v>126.7404142014985</v>
+        <v>375.9400302398755</v>
       </c>
       <c r="R26">
-        <v>760.442485208991</v>
+        <v>2255.640181439253</v>
       </c>
       <c r="S26">
-        <v>0.01431802488606538</v>
+        <v>0.01384484923482454</v>
       </c>
       <c r="T26">
-        <v>0.0118528762498967</v>
+        <v>0.01062080786411767</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>22.832077</v>
+        <v>43.50447033333333</v>
       </c>
       <c r="H27">
-        <v>68.49623099999999</v>
+        <v>130.513411</v>
       </c>
       <c r="I27">
-        <v>0.03120810544755168</v>
+        <v>0.04265367953904556</v>
       </c>
       <c r="J27">
-        <v>0.03217289111905</v>
+        <v>0.04326746536421927</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>3.981621</v>
       </c>
       <c r="O27">
-        <v>0.1096944538210784</v>
+        <v>0.04985235811703818</v>
       </c>
       <c r="P27">
-        <v>0.1321277020646205</v>
+        <v>0.05655113603398049</v>
       </c>
       <c r="Q27">
-        <v>30.30289241893899</v>
+        <v>57.73943755769232</v>
       </c>
       <c r="R27">
-        <v>272.726031770451</v>
+        <v>519.6549380192309</v>
       </c>
       <c r="S27">
-        <v>0.003423356081859803</v>
+        <v>0.002126386507389883</v>
       </c>
       <c r="T27">
-        <v>0.004250930172335313</v>
+        <v>0.002446824319657503</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>22.832077</v>
+        <v>43.50447033333333</v>
       </c>
       <c r="H28">
-        <v>68.49623099999999</v>
+        <v>130.513411</v>
       </c>
       <c r="I28">
-        <v>0.03120810544755168</v>
+        <v>0.04265367953904556</v>
       </c>
       <c r="J28">
-        <v>0.03217289111905</v>
+        <v>0.04326746536421927</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>0.250284</v>
+        <v>0.5601933333333333</v>
       </c>
       <c r="N28">
-        <v>0.750852</v>
+        <v>1.68058</v>
       </c>
       <c r="O28">
-        <v>0.02068612257180288</v>
+        <v>0.02104190127697539</v>
       </c>
       <c r="P28">
-        <v>0.02491657276034671</v>
+        <v>0.0238693507483477</v>
       </c>
       <c r="Q28">
-        <v>5.714503559868</v>
+        <v>24.37091425093111</v>
       </c>
       <c r="R28">
-        <v>51.430532038812</v>
+        <v>219.33822825838</v>
       </c>
       <c r="S28">
-        <v>0.0006455746945218033</v>
+        <v>0.0008975145139603417</v>
       </c>
       <c r="T28">
-        <v>0.000801638182478522</v>
+        <v>0.001032766306770536</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>22.832077</v>
+        <v>43.50447033333333</v>
       </c>
       <c r="H29">
-        <v>68.49623099999999</v>
+        <v>130.513411</v>
       </c>
       <c r="I29">
-        <v>0.03120810544755168</v>
+        <v>0.04265367953904556</v>
       </c>
       <c r="J29">
-        <v>0.03217289111905</v>
+        <v>0.04326746536421927</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>0.611755</v>
+        <v>0.8194015</v>
       </c>
       <c r="N29">
-        <v>1.22351</v>
+        <v>1.638803</v>
       </c>
       <c r="O29">
-        <v>0.05056191731758031</v>
+        <v>0.03077824108796764</v>
       </c>
       <c r="P29">
-        <v>0.04060144467619692</v>
+        <v>0.02327599020245657</v>
       </c>
       <c r="Q29">
-        <v>13.967637265135</v>
+        <v>35.64762824783883</v>
       </c>
       <c r="R29">
-        <v>83.80582359080999</v>
+        <v>213.885769487033</v>
       </c>
       <c r="S29">
-        <v>0.001577941647277436</v>
+        <v>0.001312805232141657</v>
       </c>
       <c r="T29">
-        <v>0.001306265858843416</v>
+        <v>0.001007093099902697</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>22.832077</v>
+        <v>43.50447033333333</v>
       </c>
       <c r="H30">
-        <v>68.49623099999999</v>
+        <v>130.513411</v>
       </c>
       <c r="I30">
-        <v>0.03120810544755168</v>
+        <v>0.04265367953904556</v>
       </c>
       <c r="J30">
-        <v>0.03217289111905</v>
+        <v>0.04326746536421927</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>4.001879333333334</v>
+        <v>15.11328633333333</v>
       </c>
       <c r="N30">
-        <v>12.005638</v>
+        <v>45.339859</v>
       </c>
       <c r="O30">
-        <v>0.3307577248521605</v>
+        <v>0.5676830838103418</v>
       </c>
       <c r="P30">
-        <v>0.3983998880756573</v>
+        <v>0.6439639870471084</v>
       </c>
       <c r="Q30">
-        <v>91.37121708337534</v>
+        <v>657.4955169276722</v>
       </c>
       <c r="R30">
-        <v>822.340953750378</v>
+        <v>5917.459652349049</v>
       </c>
       <c r="S30">
-        <v>0.01032232195477851</v>
+        <v>0.02421377233658346</v>
       </c>
       <c r="T30">
-        <v>0.01281767622089983</v>
+        <v>0.02786268950536531</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>22.832077</v>
+        <v>43.50447033333333</v>
       </c>
       <c r="H31">
-        <v>68.49623099999999</v>
+        <v>130.513411</v>
       </c>
       <c r="I31">
-        <v>0.03120810544755168</v>
+        <v>0.04265367953904556</v>
       </c>
       <c r="J31">
-        <v>0.03217289111905</v>
+        <v>0.04326746536421927</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>0.3570200000000001</v>
+        <v>0.161253</v>
       </c>
       <c r="N31">
-        <v>1.07106</v>
+        <v>0.4837590000000001</v>
       </c>
       <c r="O31">
-        <v>0.02950791692870925</v>
+        <v>0.00605696195352101</v>
       </c>
       <c r="P31">
-        <v>0.03554248296694549</v>
+        <v>0.006870850092628699</v>
       </c>
       <c r="Q31">
-        <v>8.15150813054</v>
+        <v>7.015226354660999</v>
       </c>
       <c r="R31">
-        <v>73.36357317486001</v>
+        <v>63.13703719194901</v>
       </c>
       <c r="S31">
-        <v>0.0009208861830487536</v>
+        <v>0.0002583517141456765</v>
       </c>
       <c r="T31">
-        <v>0.001143504434596226</v>
+        <v>0.000297284268405555</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>48.737294</v>
+        <v>198.5510966666667</v>
       </c>
       <c r="H32">
-        <v>146.211882</v>
+        <v>595.65329</v>
       </c>
       <c r="I32">
-        <v>0.06661674320651284</v>
+        <v>0.1946681521337158</v>
       </c>
       <c r="J32">
-        <v>0.06867617226847689</v>
+        <v>0.1974694239978009</v>
       </c>
       <c r="K32">
         <v>2</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>5.550980500000001</v>
+        <v>8.6414115</v>
       </c>
       <c r="N32">
-        <v>11.101961</v>
+        <v>17.282823</v>
       </c>
       <c r="O32">
-        <v>0.4587918645086687</v>
+        <v>0.324587453754156</v>
       </c>
       <c r="P32">
-        <v>0.3684119094562331</v>
+        <v>0.245468685875478</v>
       </c>
       <c r="Q32">
-        <v>270.539768616767</v>
+        <v>1715.761730072945</v>
       </c>
       <c r="R32">
-        <v>1623.238611700602</v>
+        <v>10294.57038043767</v>
       </c>
       <c r="S32">
-        <v>0.03056321982321122</v>
+        <v>0.06318683982810946</v>
       </c>
       <c r="T32">
-        <v>0.02530111975957477</v>
+        <v>0.04847256000932778</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>48.737294</v>
+        <v>198.5510966666667</v>
       </c>
       <c r="H33">
-        <v>146.211882</v>
+        <v>595.65329</v>
       </c>
       <c r="I33">
-        <v>0.06661674320651284</v>
+        <v>0.1946681521337158</v>
       </c>
       <c r="J33">
-        <v>0.06867617226847689</v>
+        <v>0.1974694239978009</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>3.981621</v>
       </c>
       <c r="O33">
-        <v>0.1096944538210784</v>
+        <v>0.04985235811703818</v>
       </c>
       <c r="P33">
-        <v>0.1321277020646205</v>
+        <v>0.05655113603398049</v>
       </c>
       <c r="Q33">
-        <v>64.68447775785799</v>
+        <v>263.5184053536766</v>
       </c>
       <c r="R33">
-        <v>582.160299820722</v>
+        <v>2371.66564818309</v>
       </c>
       <c r="S33">
-        <v>0.007307487261377459</v>
+        <v>0.009704666434152067</v>
       </c>
       <c r="T33">
-        <v>0.009074024828427866</v>
+        <v>0.01116712025905141</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>48.737294</v>
+        <v>198.5510966666667</v>
       </c>
       <c r="H34">
-        <v>146.211882</v>
+        <v>595.65329</v>
       </c>
       <c r="I34">
-        <v>0.06661674320651284</v>
+        <v>0.1946681521337158</v>
       </c>
       <c r="J34">
-        <v>0.06867617226847689</v>
+        <v>0.1974694239978009</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>0.250284</v>
+        <v>0.5601933333333333</v>
       </c>
       <c r="N34">
-        <v>0.750852</v>
+        <v>1.68058</v>
       </c>
       <c r="O34">
-        <v>0.02068612257180288</v>
+        <v>0.02104190127697539</v>
       </c>
       <c r="P34">
-        <v>0.02491657276034671</v>
+        <v>0.0238693507483477</v>
       </c>
       <c r="Q34">
-        <v>12.198164891496</v>
+        <v>111.2270006786889</v>
       </c>
       <c r="R34">
-        <v>109.783484023464</v>
+        <v>1001.0430061082</v>
       </c>
       <c r="S34">
-        <v>0.001378042115304242</v>
+        <v>0.004096188038968873</v>
       </c>
       <c r="T34">
-        <v>0.00171117484322961</v>
+        <v>0.0047134669434777</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>48.737294</v>
+        <v>198.5510966666667</v>
       </c>
       <c r="H35">
-        <v>146.211882</v>
+        <v>595.65329</v>
       </c>
       <c r="I35">
-        <v>0.06661674320651284</v>
+        <v>0.1946681521337158</v>
       </c>
       <c r="J35">
-        <v>0.06867617226847689</v>
+        <v>0.1974694239978009</v>
       </c>
       <c r="K35">
         <v>2</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>0.611755</v>
+        <v>0.8194015</v>
       </c>
       <c r="N35">
-        <v>1.22351</v>
+        <v>1.638803</v>
       </c>
       <c r="O35">
-        <v>0.05056191731758031</v>
+        <v>0.03077824108796764</v>
       </c>
       <c r="P35">
-        <v>0.04060144467619692</v>
+        <v>0.02327599020245657</v>
       </c>
       <c r="Q35">
-        <v>29.81528329097</v>
+        <v>162.6930664353117</v>
       </c>
       <c r="R35">
-        <v>178.89169974582</v>
+        <v>976.15839861187</v>
       </c>
       <c r="S35">
-        <v>0.003368270261974182</v>
+        <v>0.005991543318520666</v>
       </c>
       <c r="T35">
-        <v>0.002788351808931533</v>
+        <v>0.004596296378257556</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>48.737294</v>
+        <v>198.5510966666667</v>
       </c>
       <c r="H36">
-        <v>146.211882</v>
+        <v>595.65329</v>
       </c>
       <c r="I36">
-        <v>0.06661674320651284</v>
+        <v>0.1946681521337158</v>
       </c>
       <c r="J36">
-        <v>0.06867617226847689</v>
+        <v>0.1974694239978009</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>4.001879333333334</v>
+        <v>15.11328633333333</v>
       </c>
       <c r="N36">
-        <v>12.005638</v>
+        <v>45.339859</v>
       </c>
       <c r="O36">
-        <v>0.3307577248521605</v>
+        <v>0.5676830838103418</v>
       </c>
       <c r="P36">
-        <v>0.3983998880756573</v>
+        <v>0.6439639870471084</v>
       </c>
       <c r="Q36">
-        <v>195.0407696211907</v>
+        <v>3000.759575720679</v>
       </c>
       <c r="R36">
-        <v>1755.366926590716</v>
+        <v>27006.83618148611</v>
       </c>
       <c r="S36">
-        <v>0.02203400242004681</v>
+        <v>0.1105098169229285</v>
       </c>
       <c r="T36">
-        <v>0.02736057934522575</v>
+        <v>0.1271631975975198</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>48.737294</v>
+        <v>198.5510966666667</v>
       </c>
       <c r="H37">
-        <v>146.211882</v>
+        <v>595.65329</v>
       </c>
       <c r="I37">
-        <v>0.06661674320651284</v>
+        <v>0.1946681521337158</v>
       </c>
       <c r="J37">
-        <v>0.06867617226847689</v>
+        <v>0.1974694239978009</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>0.3570200000000001</v>
+        <v>0.161253</v>
       </c>
       <c r="N37">
-        <v>1.07106</v>
+        <v>0.4837590000000001</v>
       </c>
       <c r="O37">
-        <v>0.02950791692870925</v>
+        <v>0.00605696195352101</v>
       </c>
       <c r="P37">
-        <v>0.03554248296694549</v>
+        <v>0.006870850092628699</v>
       </c>
       <c r="Q37">
-        <v>17.40018870388</v>
+        <v>32.01695999079</v>
       </c>
       <c r="R37">
-        <v>156.60169833492</v>
+        <v>288.15263991711</v>
       </c>
       <c r="S37">
-        <v>0.001965721324598937</v>
+        <v>0.001179097591036156</v>
       </c>
       <c r="T37">
-        <v>0.002440921683087354</v>
+        <v>0.001356782810166626</v>
       </c>
     </row>
   </sheetData>
